--- a/target/test-classes/excel/testdata.XLSX
+++ b/target/test-classes/excel/testdata.XLSX
@@ -8,7 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="AddCustomerTest" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="addCustomerTest" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="OpenAccountTest" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">firstName</t>
   </si>
@@ -44,6 +45,12 @@
   </si>
   <si>
     <t xml:space="preserve">Customer added successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CustomerName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currency</t>
   </si>
 </sst>
 </file>
@@ -147,10 +154,10 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -162,7 +169,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -176,7 +183,7 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -189,4 +196,39 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.82"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/target/test-classes/excel/testdata.XLSX
+++ b/target/test-classes/excel/testdata.XLSX
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="addCustomerTest" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="OpenAccountTest" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="openAccountTest" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">firstName</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t xml:space="preserve">Currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raman Arora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rupee</t>
   </si>
 </sst>
 </file>
@@ -153,11 +159,11 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -203,13 +209,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.82"/>
   </cols>
@@ -220,6 +226,14 @@
       </c>
       <c r="B1" s="0" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/excel/testdata.XLSX
+++ b/target/test-classes/excel/testdata.XLSX
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t xml:space="preserve">firstName</t>
   </si>
@@ -47,16 +47,34 @@
     <t xml:space="preserve">Customer added successfully</t>
   </si>
   <si>
-    <t xml:space="preserve">CustomerName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raman Arora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rupee</t>
+    <t xml:space="preserve">Rahul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priyanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kamal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gandhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ron Weasly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dollar </t>
   </si>
 </sst>
 </file>
@@ -131,13 +149,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -157,13 +179,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.54"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -190,6 +215,48 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +279,28 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/excel/testdata.XLSX
+++ b/target/test-classes/excel/testdata.XLSX
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="addCustomerTest" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="openAccountTest" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="test_suite" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t xml:space="preserve">firstName</t>
   </si>
@@ -75,6 +76,24 @@
   </si>
   <si>
     <t xml:space="preserve">Dollar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runmode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankManagerLoginTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AddCustomerTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenAccountTest</t>
   </si>
 </sst>
 </file>
@@ -84,7 +103,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -105,6 +124,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCE9178"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -149,7 +175,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -162,6 +188,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -171,6 +201,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFCE9178"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -185,7 +275,7 @@
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.54"/>
   </cols>
@@ -278,11 +368,11 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.82"/>
   </cols>
@@ -301,6 +391,66 @@
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.09"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/excel/testdata.XLSX
+++ b/target/test-classes/excel/testdata.XLSX
@@ -84,7 +84,7 @@
     <t xml:space="preserve">Runmode</t>
   </si>
   <si>
-    <t xml:space="preserve">BankManagerLoginTest</t>
+    <t xml:space="preserve">bankManagerLoginTest</t>
   </si>
   <si>
     <t xml:space="preserve">y</t>
@@ -103,7 +103,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -124,6 +124,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -175,7 +182,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -189,6 +196,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -275,7 +286,7 @@
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.54"/>
   </cols>
@@ -372,7 +383,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.82"/>
   </cols>
@@ -412,12 +423,12 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.09"/>
   </cols>
   <sheetData>
@@ -438,7 +449,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -446,7 +457,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="0" t="s">
